--- a/shipClassTests/testResults/Ship_w_Single_Sys.xlsx
+++ b/shipClassTests/testResults/Ship_w_Single_Sys.xlsx
@@ -445,17 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="7" width="12.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -629,87 +623,24 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <f>IF(B9 = D9, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <f>IF(B10 = D10, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <f>IF(B11 = D11, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <f>IF(B12 = D12, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F12">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -725,7 +656,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1005,25 +936,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -1033,107 +964,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <f>IF(B10 = F10, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <f>IF(B11 = F11, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <f>IF(B12 = F12, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J12">
+  <conditionalFormatting sqref="J2:J9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/shipClassTests/testResults/Ship_w_Single_Sys.xlsx
+++ b/shipClassTests/testResults/Ship_w_Single_Sys.xlsx
@@ -445,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,150 +497,24 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>IF(B3 = D3, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <f>IF(B4 = D4, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <f>IF(B5 = D5, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <f>IF(B6 = D6, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <f>IF(B7 = D7, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <f>IF(B8 = D8, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <f>IF(B9 = D9, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F9">
+  <conditionalFormatting sqref="F2:F3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -656,7 +530,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -738,10 +612,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -750,10 +624,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -766,206 +640,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <f>IF(B4 = F4, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <f>IF(B5 = F5, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <f>IF(B6 = F6, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <f>IF(B7 = F7, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <f>IF(B8 = F8, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <f>IF(B9 = F9, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J9">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
